--- a/Data/Processed/Angiosperms/missing_powo_ipni/Commelinaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Commelinaceae.xlsx
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
